--- a/REGULAR/CCR/BUGARIN, MA. ANA.xlsx
+++ b/REGULAR/CCR/BUGARIN, MA. ANA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="314">
   <si>
     <t>PERIOD</t>
   </si>
@@ -967,6 +967,15 @@
   </si>
   <si>
     <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>10/4,6/2023</t>
+  </si>
+  <si>
+    <t>10/31 , 11/3/2023</t>
+  </si>
+  <si>
+    <t>12/13,14,18,20,27/2023</t>
   </si>
 </sst>
 </file>
@@ -3373,7 +3382,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -3381,7 +3390,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K499" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K502" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3759,12 +3768,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K499"/>
+  <dimension ref="A2:K502"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <pane ySplit="3495" topLeftCell="A482" activePane="bottomLeft"/>
       <selection activeCell="F8" sqref="F8"/>
-      <selection pane="bottomLeft" activeCell="K496" sqref="K496"/>
+      <selection pane="bottomLeft" activeCell="K499" sqref="K499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15017,13 +15026,15 @@
       <c r="B495" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C495" s="13"/>
+      <c r="C495" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D495" s="39"/>
       <c r="E495" s="9"/>
       <c r="F495" s="20"/>
-      <c r="G495" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G495" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H495" s="39"/>
       <c r="I495" s="9"/>
@@ -15055,15 +15066,19 @@
       </c>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A497" s="40"/>
+      <c r="A497" s="40">
+        <v>45170</v>
+      </c>
       <c r="B497" s="20"/>
-      <c r="C497" s="13"/>
+      <c r="C497" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D497" s="39"/>
       <c r="E497" s="9"/>
       <c r="F497" s="20"/>
-      <c r="G497" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G497" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H497" s="39"/>
       <c r="I497" s="9"/>
@@ -15071,24 +15086,36 @@
       <c r="K497" s="20"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A498" s="40"/>
-      <c r="B498" s="20"/>
-      <c r="C498" s="13"/>
+      <c r="A498" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B498" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C498" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D498" s="39"/>
       <c r="E498" s="9"/>
       <c r="F498" s="20"/>
-      <c r="G498" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H498" s="39"/>
+      <c r="G498" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H498" s="39">
+        <v>2</v>
+      </c>
       <c r="I498" s="9"/>
       <c r="J498" s="11"/>
-      <c r="K498" s="20"/>
+      <c r="K498" s="20" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40"/>
-      <c r="B499" s="20"/>
+      <c r="B499" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C499" s="13"/>
       <c r="D499" s="39"/>
       <c r="E499" s="9"/>
@@ -15097,10 +15124,80 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H499" s="39"/>
+      <c r="H499" s="39">
+        <v>1</v>
+      </c>
       <c r="I499" s="9"/>
       <c r="J499" s="11"/>
-      <c r="K499" s="20"/>
+      <c r="K499" s="47">
+        <v>45226</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A500" s="40"/>
+      <c r="B500" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C500" s="13"/>
+      <c r="D500" s="39"/>
+      <c r="E500" s="9"/>
+      <c r="F500" s="20"/>
+      <c r="G500" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H500" s="39">
+        <v>2</v>
+      </c>
+      <c r="I500" s="9"/>
+      <c r="J500" s="11"/>
+      <c r="K500" s="47" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A501" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B501" s="20"/>
+      <c r="C501" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D501" s="39"/>
+      <c r="E501" s="9"/>
+      <c r="F501" s="20"/>
+      <c r="G501" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H501" s="39"/>
+      <c r="I501" s="9"/>
+      <c r="J501" s="11"/>
+      <c r="K501" s="20"/>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A502" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B502" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C502" s="13"/>
+      <c r="D502" s="39">
+        <v>5</v>
+      </c>
+      <c r="E502" s="9"/>
+      <c r="F502" s="20"/>
+      <c r="G502" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H502" s="39"/>
+      <c r="I502" s="9"/>
+      <c r="J502" s="11"/>
+      <c r="K502" s="20" t="s">
+        <v>313</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
